--- a/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>84.96</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.36</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4095</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.68</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.00</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001056</t>
+          <t>168501</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
+          <t>北信瑞丰产业升级多策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>168501</t>
+          <t>001056</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>北信瑞丰产业升级多策略混合</t>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6095</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1029,14 +1072,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6899999999999999</v>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4578</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1045,14 +1110,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.44</v>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4259</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1061,13 +1148,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1267,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,14 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.02</v>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5318</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1314,14 +1357,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4</v>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3731</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1330,14 +1395,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6899999999999999</v>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3449</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1346,14 +1433,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.44</v>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1362,13 +1471,699 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009027</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.79</v>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5272</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.02</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4</v>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8916</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2125,14 +2212,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6899999999999999</v>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6755</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2141,14 +2250,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.44</v>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6037</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2157,13 +2288,1475 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011592</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时军工主题股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3341</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3294</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3286</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2925</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>8.81</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>3.79</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>2.02</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.44</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -600,6 +617,1466 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5713</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>43.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002839</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>44.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015466</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013530</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015467</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002838</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>44.91</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2175,7 +3652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2953,7 +4430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3230,138 +4707,6 @@
       </c>
       <c r="H7" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000690</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源大海洋战略经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3531</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>200010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长城双动力混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.41</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0431</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3426,36 +4771,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>168501</t>
+          <t>000690</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北信瑞丰产业升级多策略混合</t>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.61</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.67</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6095</t>
+          <t>0.3531</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3464,36 +4809,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001056</t>
+          <t>200010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
+          <t>长城双动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.54</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0763</t>
+          <t>0.0431</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3568,26 +4913,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.76</t>
+          <t>11.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>92.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3802</t>
+          <t>0.6095</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3606,26 +4951,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>87.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0631</t>
+          <t>0.0763</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3634,6 +4979,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/605123-派克新材.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>2.26</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>8.81</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>3.79</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>2.02</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.44</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -616,7 +633,1409 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4095</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3058</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3399</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理瑞祥一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014509</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014508</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014695</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015429</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014696</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>58.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>58.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014668</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015430</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银证券专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>61.04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014669</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015182</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合D</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013530</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015181</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2076,7 +3495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3652,7 +5071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4430,7 +5849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4707,138 +6126,6 @@
       </c>
       <c r="H7" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000690</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源大海洋战略经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3531</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>200010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长城双动力混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.41</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0431</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4903,36 +6190,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>168501</t>
+          <t>000690</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北信瑞丰产业升级多策略混合</t>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.61</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.67</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6095</t>
+          <t>0.3531</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4941,36 +6228,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001056</t>
+          <t>200010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
+          <t>长城双动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.54</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0763</t>
+          <t>0.0431</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5045,26 +6332,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.76</t>
+          <t>11.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>92.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3802</t>
+          <t>0.6095</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5083,26 +6370,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>87.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0631</t>
+          <t>0.0763</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5118,81 +6405,81 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519702</t>
+          <t>168501</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银趋势优先混合</t>
+          <t>北信瑞丰产业升级多策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.35</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.96</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4095</t>
+          <t>0.3802</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -5200,44 +6487,44 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004139</t>
+          <t>001056</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮军民融合灵活配置混合</t>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>84.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0772</t>
+          <t>0.0631</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>